--- a/abc3.xlsx
+++ b/abc3.xlsx
@@ -41,12 +41,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00F596AA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="0066BAB7"/>
       </patternFill>
     </fill>
   </fills>
